--- a/PPH/Input/Codering Update.xlsx
+++ b/PPH/Input/Codering Update.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youdoo\Documents\Tunas Ridean\TAX\SMM\Rekon PPH MSS\Rekon PPH\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Tunas\TAX ALL KNIME\TAX\PPH\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690A4799-8E2D-4C85-86F9-DDCBF5B07C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139C9199-C12D-428D-B6BC-2462A295E395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{68BA8D45-7210-48AF-B21F-551F9E33F8E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" activeTab="1" xr2:uid="{68BA8D45-7210-48AF-B21F-551F9E33F8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="214103" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
     <t>Pembayaran PPh 4(2)</t>
   </si>
   <si>
-    <t xml:space="preserve"> PPh 4(2) </t>
-  </si>
-  <si>
     <t>PEMBAYARAN PPH 23</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Pembayaran PPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PPh 4(2) </t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -568,10 +568,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -674,7 +674,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,10 +716,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -767,7 +767,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -809,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -833,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
